--- a/travel.xlsx
+++ b/travel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Desktop\TUM\Thesis\Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>April</t>
   </si>
@@ -123,12 +123,6 @@
     <t>I paid</t>
   </si>
   <si>
-    <t>$559 AUD</t>
-  </si>
-  <si>
-    <t>for prague accom</t>
-  </si>
-  <si>
     <t>Paid back?</t>
   </si>
   <si>
@@ -136,12 +130,34 @@
   </si>
   <si>
     <t>Zeppelin Hostel, Ljubljana</t>
+  </si>
+  <si>
+    <t>total for prague accom</t>
+  </si>
+  <si>
+    <t>I paid 3x27.9Euros</t>
+  </si>
+  <si>
+    <t>total for bus from munich to prague</t>
+  </si>
+  <si>
+    <t>Owing</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -191,11 +207,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,10 +659,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:R16"/>
+  <dimension ref="C1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,9 +670,13 @@
     <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.33203125" customWidth="1"/>
     <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.44140625" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.77734375" customWidth="1"/>
+    <col min="22" max="22" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:25" x14ac:dyDescent="0.3">
       <c r="F1" t="s">
         <v>8</v>
       </c>
@@ -665,11 +689,14 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="V1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -688,17 +715,34 @@
       <c r="N2" t="s">
         <v>31</v>
       </c>
-      <c r="O2" t="s">
-        <v>32</v>
+      <c r="O2">
+        <v>559</v>
       </c>
       <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2">
+        <f>O2</f>
+        <v>559</v>
+      </c>
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="X2">
+        <f>R2/3*2</f>
+        <v>372.66666666666669</v>
+      </c>
+    </row>
+    <row r="3" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -708,8 +752,35 @@
       <c r="I3" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="4">
+        <f>3*27.9</f>
+        <v>83.699999999999989</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="7">
+        <v>121.96</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3">
+        <f>R3/3*2</f>
+        <v>81.306666666666658</v>
+      </c>
+    </row>
+    <row r="4" spans="3:25" x14ac:dyDescent="0.3">
       <c r="D4">
         <v>2</v>
       </c>
@@ -717,7 +788,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:25" x14ac:dyDescent="0.3">
       <c r="D5">
         <v>3</v>
       </c>
@@ -733,8 +804,15 @@
       <c r="J5" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="X5">
+        <f>SUM(X2:X3)</f>
+        <v>453.97333333333336</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="3:25" x14ac:dyDescent="0.3">
       <c r="D6">
         <v>4</v>
       </c>
@@ -742,7 +820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -765,7 +843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -780,7 +858,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -792,7 +870,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>13</v>
       </c>
@@ -806,7 +884,7 @@
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I10" s="3">
         <v>12.7</v>
@@ -815,7 +893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -826,7 +904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>17</v>
       </c>
@@ -843,7 +921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:25" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
         <v>5</v>
       </c>

--- a/travel.xlsx
+++ b/travel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9048" windowHeight="4428" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9048" windowHeight="4428"/>
   </bookViews>
   <sheets>
     <sheet name="Overall destinations" sheetId="2" r:id="rId1"/>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,7 +567,7 @@
         <v>25</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
@@ -626,7 +626,7 @@
         <v>27</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
@@ -649,7 +649,7 @@
       </c>
       <c r="K10">
         <f>SUM(K2:K7)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
